--- a/results/tinybert/dilemma/seed-400/0.1/percents/scores-10.xlsx
+++ b/results/tinybert/dilemma/seed-400/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="98">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -49,178 +49,247 @@
     <t>scary</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>corrupt</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>lonely</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>accusing</t>
-  </si>
-  <si>
-    <t>downward</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>fails</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>0.95-positive</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>0.95-positive</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>clarity</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>persona</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>the</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -596,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS41"/>
+  <dimension ref="A1:BS49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,25 +676,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="AK1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AT1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="BC1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="BL1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -827,13 +896,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.08786516550394832</v>
+        <v>0.001656904214150819</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -845,13 +914,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>0.001260828205911999</v>
+        <v>0.02796859523329375</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -869,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.04439921854990565</v>
+        <v>0.00173281547548153</v>
       </c>
       <c r="U3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -893,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AC3">
-        <v>0.001363111609660944</v>
+        <v>0.0236214125444731</v>
       </c>
       <c r="AD3">
         <v>5</v>
@@ -917,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.03640260504863913</v>
+        <v>0.001843762703580262</v>
       </c>
       <c r="AM3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AN3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -941,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AU3">
-        <v>0.001512602738217094</v>
+        <v>0.0229733850087589</v>
       </c>
       <c r="AV3">
         <v>5</v>
@@ -965,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.0330404965582282</v>
+        <v>0.002021278268538233</v>
       </c>
       <c r="BE3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BF3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -989,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="BM3">
-        <v>0.1115634487248377</v>
+        <v>0.02271821550093367</v>
       </c>
       <c r="BN3">
         <v>4</v>
@@ -1013,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1021,13 +1090,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07562247510515904</v>
+        <v>0.001418019390248086</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1039,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.001071979359666278</v>
+        <v>0.02641183324145412</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1063,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T4">
-        <v>0.0399846488552138</v>
+        <v>0.00142258022885154</v>
       </c>
       <c r="U4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1087,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC4">
-        <v>0.00123704998473061</v>
+        <v>0.02335711180216861</v>
       </c>
       <c r="AD4">
         <v>4</v>
@@ -1111,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL4">
-        <v>0.03342820772102157</v>
+        <v>0.001647677521741426</v>
       </c>
       <c r="AM4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AN4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1135,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AU4">
-        <v>0.001478307052132326</v>
+        <v>0.02290174938740647</v>
       </c>
       <c r="AV4">
         <v>4</v>
@@ -1159,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD4">
-        <v>0.03067160751761599</v>
+        <v>0.002007833190365245</v>
       </c>
       <c r="BE4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BF4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1183,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="BM4">
-        <v>0.1052862266761282</v>
+        <v>0.02271219741769882</v>
       </c>
       <c r="BN4">
         <v>5</v>
@@ -1207,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1215,13 +1284,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.0368977097134889</v>
+        <v>0.001268566291611092</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1233,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.001050466074876775</v>
+        <v>0.0262487716369596</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -1257,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>0.02966099248578253</v>
+        <v>0.001365297504660403</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1281,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC5">
-        <v>0.001134861881980473</v>
+        <v>0.0231878802303542</v>
       </c>
       <c r="AD5">
         <v>4</v>
@@ -1305,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL5">
-        <v>0.02832962310944959</v>
+        <v>0.001461934707727967</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1329,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AU5">
-        <v>0.001258209600055107</v>
+        <v>0.02273159806848135</v>
       </c>
       <c r="AV5">
         <v>4</v>
@@ -1353,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD5">
-        <v>0.02776986011936219</v>
+        <v>0.001662882250054533</v>
       </c>
       <c r="BE5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1377,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="BM5">
-        <v>0.08876211716270149</v>
+        <v>0.02254769347780389</v>
       </c>
       <c r="BN5">
         <v>4</v>
@@ -1401,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1409,38 +1478,38 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03671600702608396</v>
+        <v>0.00125041097896316</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>61</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>0.02605853309838267</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6">
-        <v>0.0008474991354879431</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -1451,116 +1520,116 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.02943511858437327</v>
+        <v>0.001336342493773862</v>
       </c>
       <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>61</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6">
+        <v>0.02299044339657072</v>
+      </c>
+      <c r="AD6">
         <v>4</v>
       </c>
-      <c r="V6">
+      <c r="AE6">
         <v>4</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>36</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC6">
-        <v>0.000941739314620361</v>
-      </c>
-      <c r="AD6">
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>91</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL6">
+        <v>0.001288242441109174</v>
+      </c>
+      <c r="AM6">
+        <v>6</v>
+      </c>
+      <c r="AN6">
+        <v>6</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>132</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU6">
+        <v>0.02253308819640205</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>91</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD6">
+        <v>0.001278934310066336</v>
+      </c>
+      <c r="BE6">
         <v>3</v>
       </c>
-      <c r="AE6">
+      <c r="BF6">
         <v>3</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>26</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL6">
-        <v>0.02809562284358661</v>
-      </c>
-      <c r="AM6">
-        <v>4</v>
-      </c>
-      <c r="AN6">
-        <v>4</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>36</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU6">
-        <v>0.001079474961044664</v>
-      </c>
-      <c r="AV6">
-        <v>3</v>
-      </c>
-      <c r="AW6">
-        <v>3</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>26</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD6">
-        <v>0.02753244319231863</v>
-      </c>
-      <c r="BE6">
-        <v>4</v>
-      </c>
-      <c r="BF6">
-        <v>4</v>
-      </c>
       <c r="BG6">
         <v>1</v>
       </c>
@@ -1571,31 +1640,31 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="BM6">
-        <v>0.08007596537375913</v>
+        <v>0.02248583676758402</v>
       </c>
       <c r="BN6">
+        <v>2</v>
+      </c>
+      <c r="BO6">
+        <v>2</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS6">
         <v>3</v>
-      </c>
-      <c r="BO6">
-        <v>3</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
-      <c r="BR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1603,7 +1672,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03112159962016367</v>
+        <v>0.0008425729058015791</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1621,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.0008421208142905674</v>
+        <v>0.02583153555224965</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1645,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>1091</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.0278828680511142</v>
+        <v>0.0009334815316900701</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -1669,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AC7">
-        <v>0.0009161922889328267</v>
+        <v>0.02278819423059819</v>
       </c>
       <c r="AD7">
         <v>3</v>
@@ -1693,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.02728702495078045</v>
+        <v>0.001066347984911711</v>
       </c>
       <c r="AM7">
         <v>3</v>
@@ -1717,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AU7">
-        <v>0.00102445059802536</v>
+        <v>0.02252384139198884</v>
       </c>
       <c r="AV7">
         <v>3</v>
@@ -1741,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD7">
-        <v>0.02703650776043886</v>
+        <v>0.001189168026090227</v>
       </c>
       <c r="BE7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1765,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="BM7">
-        <v>0.07437563248322511</v>
+        <v>0.02248015270014636</v>
       </c>
       <c r="BN7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1789,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1797,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03099440773898021</v>
+        <v>0.0008183658222710028</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1815,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.0008031279856095939</v>
+        <v>0.02456156036152436</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1839,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.02772475632012772</v>
+        <v>0.0008184978849198331</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1863,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC8">
-        <v>0.0007581968818930749</v>
+        <v>0.02274870686384149</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1887,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL8">
-        <v>0.02712322476467637</v>
+        <v>0.0009235895313594231</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1911,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AU8">
-        <v>0.000921374458166461</v>
+        <v>0.02251459458757563</v>
       </c>
       <c r="AV8">
         <v>2</v>
@@ -1938,41 +2007,41 @@
         <v>3</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD8">
-        <v>0.02687031591150836</v>
+        <v>0.001164954339427209</v>
       </c>
       <c r="BE8">
+        <v>6</v>
+      </c>
+      <c r="BF8">
+        <v>6</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>132</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM8">
+        <v>0.02241729394253491</v>
+      </c>
+      <c r="BN8">
         <v>3</v>
       </c>
-      <c r="BF8">
+      <c r="BO8">
         <v>3</v>
       </c>
-      <c r="BG8">
-        <v>1</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>32</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM8">
-        <v>0.07352743841876704</v>
-      </c>
-      <c r="BN8">
-        <v>2</v>
-      </c>
-      <c r="BO8">
-        <v>2</v>
-      </c>
       <c r="BP8">
         <v>0</v>
       </c>
@@ -1983,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1991,38 +2060,38 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03077636451409426</v>
+        <v>0.0006440332211164724</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9">
+        <v>0.02452351265380898</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>44</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9">
-        <v>0.0006465490665481266</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -2033,139 +2102,139 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.02745370763843661</v>
+        <v>0.0007576029721526712</v>
       </c>
       <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9">
+        <v>0.02258594506462565</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>3</v>
       </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AK9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL9">
+        <v>0.0008823133504675432</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>8</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU9">
+        <v>0.02250892287694479</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>4</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD9">
+        <v>0.001112512261576735</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>2</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>8</v>
+      </c>
+      <c r="BL9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC9">
-        <v>0.0007309763526982028</v>
-      </c>
-      <c r="AD9">
-        <v>3</v>
-      </c>
-      <c r="AE9">
-        <v>3</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>92</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL9">
-        <v>0.02684242444564081</v>
-      </c>
-      <c r="AM9">
-        <v>3</v>
-      </c>
-      <c r="AN9">
-        <v>3</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>44</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU9">
-        <v>0.0006257130477399957</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD9">
-        <v>0.02670676417748959</v>
-      </c>
-      <c r="BE9">
-        <v>2</v>
-      </c>
-      <c r="BF9">
-        <v>2</v>
-      </c>
-      <c r="BG9">
-        <v>1</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>7</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="BM9">
-        <v>0.05272807923743985</v>
+        <v>0.02241194389089445</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2177,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2185,61 +2254,61 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03043112940802487</v>
+        <v>0.0006399987071947097</v>
       </c>
       <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>0.02306458762466606</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10">
-        <v>0.0006115899787651848</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>55</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.02702454722575901</v>
+        <v>0.0007384390310242984</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2251,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AC10">
-        <v>0.0005921412149241018</v>
+        <v>0.02258030401223184</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2275,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL10">
-        <v>0.02664222724407838</v>
+        <v>0.0008203990791297233</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2299,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AU10">
-        <v>0.0006255239661354005</v>
+        <v>0.02248413941757298</v>
       </c>
       <c r="AV10">
         <v>3</v>
@@ -2323,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD10">
-        <v>0.02665928079208088</v>
+        <v>0.0009975286148064979</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2347,19 +2416,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="BM10">
-        <v>0.05201553762612309</v>
+        <v>0.02237750547047129</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2371,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2379,13 +2448,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.03043112940802487</v>
+        <v>0.0006339469363120657</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2397,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.0004321531946148709</v>
+        <v>0.02305915223784957</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2421,91 +2490,91 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.02702454722575901</v>
+        <v>0.000709693119331739</v>
       </c>
       <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>17</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC11">
+        <v>0.02251261138350607</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>16</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL11">
+        <v>0.0008186908995604312</v>
+      </c>
+      <c r="AM11">
         <v>3</v>
       </c>
-      <c r="V11">
+      <c r="AN11">
         <v>3</v>
       </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11">
         <v>63</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC11">
-        <v>0.0005107868849469529</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL11">
-        <v>0.02659542719090579</v>
-      </c>
-      <c r="AM11">
-        <v>2</v>
-      </c>
-      <c r="AN11">
-        <v>2</v>
-      </c>
-      <c r="AO11">
-        <v>1</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>9</v>
-      </c>
       <c r="AT11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AU11">
-        <v>0.0006188350023625827</v>
+        <v>0.02244086234937475</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2517,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD11">
-        <v>0.02663553909937652</v>
+        <v>0.0009080968895407579</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2541,19 +2610,19 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="BM11">
-        <v>0.05130299601480634</v>
+        <v>0.02234875111748581</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -2565,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2573,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02565438409542686</v>
+        <v>0.0006292400034033425</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2591,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.000431480904465199</v>
+        <v>0.02299392759605177</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2615,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.02648872924884162</v>
+        <v>0.000687335188015304</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2639,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC12">
-        <v>0.0005075935067360111</v>
+        <v>0.02215241275050675</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2663,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL12">
-        <v>0.02657202716431948</v>
+        <v>0.0007722435347558632</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2687,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AU12">
-        <v>0.0006119569569851696</v>
+        <v>0.02227280764729809</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2711,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BD12">
-        <v>0.02661179740667217</v>
+        <v>0.0008189997229853879</v>
       </c>
       <c r="BE12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -2735,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="BM12">
-        <v>0.05130299601480634</v>
+        <v>0.02232133282768909</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2759,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2767,13 +2836,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02561804355794587</v>
+        <v>0.0004300278997312755</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2785,19 +2854,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.0004308086143155271</v>
+        <v>0.02274070577800229</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2809,19 +2878,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>382</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.02644355446855976</v>
+        <v>0.000508262638289843</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -2833,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AC13">
-        <v>0.0005044001285250693</v>
+        <v>0.02215241275050675</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2857,19 +2926,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL13">
-        <v>0.02654862713773318</v>
+        <v>0.0006226057177215955</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -2881,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AU13">
-        <v>0.0006119569569851696</v>
+        <v>0.02227280764729809</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2905,19 +2974,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BD13">
-        <v>0.02658541559905608</v>
+        <v>0.0008055546448123995</v>
       </c>
       <c r="BE13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -2929,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="BM13">
-        <v>0.0456026631242723</v>
+        <v>0.02232133282768909</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2953,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2961,13 +3030,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02559987328920537</v>
+        <v>0.0004300278997312755</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2979,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.0004308086143155271</v>
+        <v>0.02134476402833191</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3003,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.02642096707841884</v>
+        <v>0.000508262638289843</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -3027,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC14">
-        <v>0.0005044001285250693</v>
+        <v>0.02215241275050675</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3051,19 +3120,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL14">
-        <v>0.0264082269782154</v>
+        <v>0.0006226057177215955</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>1</v>
@@ -3075,19 +3144,19 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AU14">
-        <v>0.0005637160985409803</v>
+        <v>0.02227280764729809</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -3099,19 +3168,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD14">
-        <v>0.02646934725044603</v>
+        <v>0.0008055546448123995</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -3123,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BM14">
-        <v>0.0456026631242723</v>
+        <v>0.02232133282768909</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3147,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3155,13 +3224,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02558170302046487</v>
+        <v>0.000429355480744315</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3173,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.0004254302931181514</v>
+        <v>0.02134476402833191</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3197,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.02639837968827792</v>
+        <v>0.0005050686481017808</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -3221,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC15">
-        <v>0.000478853102837535</v>
+        <v>0.02215241275050675</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3245,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL15">
-        <v>0.02639782394050116</v>
+        <v>0.0006157263542396154</v>
       </c>
       <c r="AM15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -3269,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AU15">
-        <v>0.0005569325939658649</v>
+        <v>0.02227280764729809</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3293,19 +3362,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BD15">
-        <v>0.02613432343767331</v>
+        <v>0.000792778684060151</v>
       </c>
       <c r="BE15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -3317,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BM15">
-        <v>0.04417757990163879</v>
+        <v>0.02232133282768909</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3341,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3349,13 +3418,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0254726814080219</v>
+        <v>0.0004286830617573546</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3367,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.0004254302931181514</v>
+        <v>0.02134476402833191</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3391,19 +3460,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.02626285534743236</v>
+        <v>0.0005018746579137186</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -3415,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AC16">
-        <v>0.000478853102837535</v>
+        <v>0.02215241275050675</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3439,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AL16">
-        <v>0.02639782394050116</v>
+        <v>0.0006088469907576356</v>
       </c>
       <c r="AM16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>1</v>
@@ -3463,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AU16">
-        <v>0.0005569325939658649</v>
+        <v>0.02227280764729809</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3487,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BD16">
-        <v>0.02613432343767331</v>
+        <v>0.0007800027233079024</v>
       </c>
       <c r="BE16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>1</v>
@@ -3511,19 +3580,19 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="BM16">
-        <v>0.0364752746302958</v>
+        <v>0.02232133282768909</v>
       </c>
       <c r="BN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -3535,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3543,13 +3612,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.02518195710817398</v>
+        <v>0.0004286830617573546</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3561,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.0004240857128188075</v>
+        <v>0.02134476402833191</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3585,19 +3654,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.02590145710517754</v>
+        <v>0.0005018746579137186</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -3609,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC17">
-        <v>0.0004724663464156514</v>
+        <v>0.02214677169811294</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3633,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL17">
-        <v>0.02603382655283465</v>
+        <v>0.0006088469907576356</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -3657,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AU17">
-        <v>0.0005431765032110387</v>
+        <v>0.02226713593666725</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3681,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD17">
-        <v>0.0261158619747924</v>
+        <v>0.0007800027233079024</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3705,19 +3774,19 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="BM17">
-        <v>0.03304821902685332</v>
+        <v>0.02231564876025143</v>
       </c>
       <c r="BN17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP17">
         <v>0</v>
@@ -3729,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3737,13 +3806,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.02500025442076903</v>
+        <v>0.0004286830617573546</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3755,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.0004126567802743842</v>
+        <v>0.02134476402833191</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3779,19 +3848,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18">
-        <v>0.02567558320376827</v>
+        <v>0.0005018746579137186</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -3803,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC18">
-        <v>0.000418178916829641</v>
+        <v>0.02214677169811294</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3827,19 +3896,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL18">
-        <v>0.02579982628697167</v>
+        <v>0.0006088469907576356</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>1</v>
@@ -3851,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AU18">
-        <v>0.0004262497317950162</v>
+        <v>0.02226713593666725</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3875,13 +3944,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD18">
-        <v>0.0261158619747924</v>
+        <v>0.0007800027233079024</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3899,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BM18">
-        <v>0.03206437250925396</v>
+        <v>0.02231564876025143</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3923,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3931,7 +4000,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01998729561454459</v>
+        <v>0.0004286830617573546</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3949,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.0003931603659338975</v>
+        <v>0.02133932864151543</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3973,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.02484612915501884</v>
+        <v>0.0005018746579137186</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -3997,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC19">
-        <v>0.000325570948712329</v>
+        <v>0.02214113064571913</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4021,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL19">
-        <v>0.02574002924492703</v>
+        <v>0.0006088469907576356</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4045,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AU19">
-        <v>0.0002267864158500367</v>
+        <v>0.02226146422603641</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4069,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD19">
-        <v>0.0261158619747924</v>
+        <v>0.0007800027233079024</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4093,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BM19">
-        <v>0.01140066578106807</v>
+        <v>0.02230996469281377</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4117,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4125,7 +4194,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01998729561454459</v>
+        <v>0.0004286830617573546</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4143,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.0003897989151855377</v>
+        <v>0.02133932864151543</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4167,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.02484612915501884</v>
+        <v>0.0005018746579137186</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4191,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC20">
-        <v>0.0003096040576576202</v>
+        <v>0.02214113064571913</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4215,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL20">
-        <v>0.02574002924492703</v>
+        <v>0.0006088469907576356</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4239,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AU20">
-        <v>0.0001923961889629712</v>
+        <v>0.02226146422603641</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4263,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BD20">
-        <v>0.02609212028208805</v>
+        <v>0.0007800027233079024</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4287,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BM20">
-        <v>0.0078379577244843</v>
+        <v>0.02230996469281377</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4311,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4319,7 +4388,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01998729561454459</v>
+        <v>0.0004286830617573546</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4337,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.000385092884137834</v>
+        <v>0.02133389325469894</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4361,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.02484612915501884</v>
+        <v>0.0005018746579137186</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4385,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AC21">
-        <v>0.0002872504101810276</v>
+        <v>0.02214113064571913</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4409,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL21">
-        <v>0.02574002924492703</v>
+        <v>0.0006088469907576356</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4433,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AU21">
-        <v>0.0001442498713210796</v>
+        <v>0.02226146422603641</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4457,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD21">
-        <v>0.02609212028208805</v>
+        <v>0.0007800027233079024</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4481,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BM21">
-        <v>0.002850166445267015</v>
+        <v>0.02230996469281377</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4505,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4513,7 +4582,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01996912534580409</v>
+        <v>0.0004280106427703941</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4531,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.0003824037235391462</v>
+        <v>0.02133389325469894</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4555,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22">
-        <v>0.02482354176487792</v>
+        <v>0.0004986806677256565</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4579,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC22">
-        <v>0.0002744768973372604</v>
+        <v>0.02213548959332531</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4603,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL22">
-        <v>0.02571662921834073</v>
+        <v>0.0006019676272756555</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4627,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AU22">
-        <v>0.0001167376898114273</v>
+        <v>0.02225579251540558</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4651,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BD22">
-        <v>0.02608948016717632</v>
+        <v>0.0007672267625556539</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>1</v>
@@ -4675,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BM22">
-        <v>0</v>
+        <v>0.0223042806253761</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4699,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4707,7 +4776,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01996912534580409</v>
+        <v>0.0004280106427703941</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4725,13 +4794,37 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23">
+        <v>0.02133389325469894</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23">
-        <v>0.02482354176487792</v>
+        <v>0.0004986806677256565</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4749,13 +4842,37 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC23">
+        <v>0.02211856643614387</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>6</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL23">
-        <v>0.02571662921834073</v>
+        <v>0.0006019676272756555</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4773,13 +4890,37 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU23">
+        <v>0.02223877738351307</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>6</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD23">
-        <v>0.02606837858938369</v>
+        <v>0.0007672267625556539</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4797,7 +4938,31 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="BL23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM23">
+        <v>0.02228722842306313</v>
+      </c>
+      <c r="BN23">
+        <v>1</v>
+      </c>
+      <c r="BO23">
+        <v>1</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>1</v>
+      </c>
+      <c r="BR23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4805,7 +4970,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0199509550770636</v>
+        <v>0.0004273382237834336</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4823,13 +4988,37 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24">
+        <v>0.02132845786788246</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T24">
-        <v>0.02480095437473699</v>
+        <v>0.0004954866775375943</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4847,13 +5036,37 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC24">
+        <v>0.02211292538375006</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>7</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL24">
-        <v>0.02569322919175443</v>
+        <v>0.0005950882637936755</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -4871,13 +5084,37 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU24">
+        <v>0.02223310567288223</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>7</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD24">
-        <v>0.02606837858938369</v>
+        <v>0.0007544508018034053</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -4895,7 +5132,31 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="BL24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM24">
+        <v>0.02228154435562547</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>1</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -4903,7 +5164,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0199509550770636</v>
+        <v>0.0004266658047964732</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4921,13 +5182,37 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25">
+        <v>0.02131215170743301</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T25">
-        <v>0.02480095437473699</v>
+        <v>0.0004922926873495322</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -4945,13 +5230,37 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC25">
+        <v>0.02210164327896243</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>9</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL25">
-        <v>0.02569322919175443</v>
+        <v>0.0005882089003116955</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -4969,13 +5278,37 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU25">
+        <v>0.02222176225162055</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>9</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BD25">
-        <v>0.02606837858938369</v>
+        <v>0.0007416748410511568</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -4993,7 +5326,31 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="BL25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM25">
+        <v>0.02227017622075015</v>
+      </c>
+      <c r="BN25">
+        <v>1</v>
+      </c>
+      <c r="BO25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5001,7 +5358,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0199509550770636</v>
+        <v>0.0004266658047964732</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5019,13 +5376,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26">
+        <v>0.02130671632061653</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T26">
-        <v>0.02480095437473699</v>
+        <v>0.0004922926873495322</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5043,13 +5424,37 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC26">
+        <v>0.02210164327896243</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>9</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL26">
-        <v>0.02569322919175443</v>
+        <v>0.0005882089003116955</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5067,13 +5472,37 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU26">
+        <v>0.02222176225162055</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>9</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BD26">
-        <v>0.02606837858938369</v>
+        <v>0.0007416748410511568</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5091,7 +5520,31 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM26">
+        <v>0.02227017622075015</v>
+      </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5099,7 +5552,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0199509550770636</v>
+        <v>0.0004239761288486314</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5117,13 +5570,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27">
+        <v>0.02129584554698356</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.02480095437473699</v>
+        <v>0.0004795167265972837</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5141,13 +5618,37 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC27">
+        <v>0.02209600222656861</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>10</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL27">
-        <v>0.02569322919175443</v>
+        <v>0.0005606914463837755</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5165,13 +5666,37 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU27">
+        <v>0.02221609054098972</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>10</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BD27">
-        <v>0.02602089520397497</v>
+        <v>0.0006905709980421625</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5189,7 +5714,31 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="BL27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM27">
+        <v>0.02226449215331249</v>
+      </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>1</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5197,7 +5746,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01991461453958261</v>
+        <v>0.0004226312908747105</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5215,13 +5764,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28">
+        <v>0.02129584554698356</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>9</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.02475577959445514</v>
+        <v>0.0004731287462211594</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5239,13 +5812,37 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC28">
+        <v>0.02209600222656861</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>10</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL28">
-        <v>0.02564642913858184</v>
+        <v>0.0005469327194198155</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5263,13 +5860,37 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU28">
+        <v>0.02221609054098972</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>10</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BD28">
-        <v>0.02602089520397497</v>
+        <v>0.0006650190765376653</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5287,7 +5908,31 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="BL28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM28">
+        <v>0.02226449215331249</v>
+      </c>
+      <c r="BN28">
+        <v>1</v>
+      </c>
+      <c r="BO28">
+        <v>1</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5295,7 +5940,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.01991461453958261</v>
+        <v>0.00042195887188775</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5313,13 +5958,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29">
+        <v>0.02129041016016707</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.02475577959445514</v>
+        <v>0.0004699347560330973</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5337,13 +6006,37 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC29">
+        <v>0.02207907906938717</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>13</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL29">
-        <v>0.02564642913858184</v>
+        <v>0.0005400533559378355</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -5361,13 +6054,37 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU29">
+        <v>0.0221990754090972</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>13</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BD29">
-        <v>0.02599715351127062</v>
+        <v>0.0006522431157854168</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -5385,7 +6102,31 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM29">
+        <v>0.02224743995099951</v>
+      </c>
+      <c r="BN29">
+        <v>1</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -5393,7 +6134,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01989644427084211</v>
+        <v>0.0004212864529007896</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5411,13 +6152,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30">
+        <v>0.02129041016016707</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.02473319220431422</v>
+        <v>0.0004667407658450351</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5435,13 +6200,37 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC30">
+        <v>0.02205651485981192</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>17</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL30">
-        <v>0.02562302911199554</v>
+        <v>0.0005331739924558555</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -5459,13 +6248,37 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU30">
+        <v>0.02217638856657386</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>17</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BD30">
-        <v>0.02594967012586191</v>
+        <v>0.0006394671550331682</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -5483,7 +6296,31 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM30">
+        <v>0.02222470368124888</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -5491,7 +6328,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01986010373336112</v>
+        <v>0.0004199416149268687</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5509,13 +6346,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31">
+        <v>0.02127410399971762</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.02468801742403236</v>
+        <v>0.0004603527854689108</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -5533,13 +6394,37 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC31">
+        <v>0.02205087380741811</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>18</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.02557622905882295</v>
+        <v>0.0005194152654918955</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -5557,13 +6442,37 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU31">
+        <v>0.02217071685594302</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>18</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BD31">
-        <v>0.02590218674045319</v>
+        <v>0.000613915233528671</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -5581,7 +6490,31 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM31">
+        <v>0.02221901961381122</v>
+      </c>
+      <c r="BN31">
+        <v>1</v>
+      </c>
+      <c r="BO31">
+        <v>1</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -5589,7 +6522,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01982376319588014</v>
+        <v>0.0004199416149268687</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5607,13 +6540,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <v>0.02125236245245168</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>17</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0.02464284264375051</v>
+        <v>0.0004603527854689108</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -5631,13 +6588,37 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC32">
+        <v>0.02199446328347997</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>28</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL32">
-        <v>0.02552942900565035</v>
+        <v>0.0005194152654918955</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -5655,13 +6636,37 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU32">
+        <v>0.02211399974963465</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>28</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BD32">
-        <v>0.02585470335504448</v>
+        <v>0.000613915233528671</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -5679,15 +6684,39 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="BL32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM32">
+        <v>0.02216217893943462</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:71">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01978742265839914</v>
+        <v>0.0004192691959399082</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5705,13 +6734,37 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33">
+        <v>0.0212469270656352</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>18</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33">
-        <v>0.02459766786346866</v>
+        <v>0.0004571587952808487</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -5729,13 +6782,37 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC33">
+        <v>0.02197189907390471</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>32</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL33">
-        <v>0.02548262895247776</v>
+        <v>0.0005125359020099155</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -5753,19 +6830,43 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU33">
+        <v>0.0220913129071113</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>32</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="BD33">
-        <v>0.02585206324013276</v>
+        <v>0.0006011392727764224</v>
       </c>
       <c r="BE33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG33">
         <v>1</v>
@@ -5777,15 +6878,39 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="BL33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM33">
+        <v>0.02213944266968398</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:71">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01973291185217766</v>
+        <v>0.000414562263031185</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5803,13 +6928,37 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34">
+        <v>0.02119257319747037</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>28</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T34">
-        <v>0.02452990569304588</v>
+        <v>0.0004348008639644137</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -5827,13 +6976,37 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC34">
+        <v>0.02195497591672327</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>35</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL34">
-        <v>0.02541242887271887</v>
+        <v>0.0004643803576360555</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -5851,13 +7024,37 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU34">
+        <v>0.02207429777521878</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>35</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD34">
-        <v>0.02578347827693141</v>
+        <v>0.0005117075475106825</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -5875,15 +7072,39 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM34">
+        <v>0.022122390467371</v>
+      </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
+      <c r="BO34">
+        <v>1</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:71">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.01973291185217766</v>
+        <v>0.0004118725870833433</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5901,13 +7122,37 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35">
+        <v>0.02117083165020443</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>32</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T35">
-        <v>0.02452990569304588</v>
+        <v>0.0004220249032121652</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -5925,13 +7170,37 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC35">
+        <v>0.02194369381193564</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>37</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL35">
-        <v>0.02541242887271887</v>
+        <v>0.0004368629037081356</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -5949,13 +7218,37 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU35">
+        <v>0.02206295435395711</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>37</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BD35">
-        <v>0.02578347827693141</v>
+        <v>0.0004606037045016882</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -5973,15 +7266,39 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="BL35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM35">
+        <v>0.02211102233249568</v>
+      </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:71">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01971474158343716</v>
+        <v>0.0004118725870833433</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -5999,13 +7316,37 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36">
+        <v>0.02115452548975498</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>35</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T36">
-        <v>0.02450731830290495</v>
+        <v>0.0004220249032121652</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6023,13 +7364,37 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC36">
+        <v>0.0219267706547542</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>40</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AL36">
-        <v>0.02538902884613256</v>
+        <v>0.0004368629037081356</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -6047,13 +7412,37 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU36">
+        <v>0.0220459392220646</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>40</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BD36">
-        <v>0.02575973658422705</v>
+        <v>0.0004606037045016882</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -6071,15 +7460,39 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="BL36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM36">
+        <v>0.0220939701301827</v>
+      </c>
+      <c r="BN36">
+        <v>1</v>
+      </c>
+      <c r="BO36">
+        <v>1</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:71">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.0195875497022537</v>
+        <v>0.0004038035592398178</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6097,13 +7510,37 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>0.02114365471612201</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>37</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T37">
-        <v>0.02434920657191847</v>
+        <v>0.0003836970209554194</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6121,13 +7558,37 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC37">
+        <v>0.02185343697363462</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>53</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AL37">
-        <v>0.02522522866002849</v>
+        <v>0.0003543105419243756</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -6145,13 +7606,37 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU37">
+        <v>0.02197220698386371</v>
+      </c>
+      <c r="AV37">
+        <v>1</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>53</v>
       </c>
       <c r="BC37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BD37">
-        <v>0.02559354473529656</v>
+        <v>0.0003072921754747054</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -6169,399 +7654,1207 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="BL37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM37">
+        <v>0.02202007725349313</v>
+      </c>
+      <c r="BN37">
+        <v>1</v>
+      </c>
+      <c r="BO37">
+        <v>1</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:62">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>0.01949669835855122</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>27</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T38">
-        <v>0.02423626962121384</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>27</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL38">
-        <v>0.025108228527097</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>1</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>27</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD38">
-        <v>0.02547483627177477</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>1</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>27</v>
+    <row r="38" spans="1:71">
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.02112734855567256</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>40</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC38">
+        <v>0.02182523171166555</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>58</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU38">
+        <v>0.02194384843070953</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>58</v>
+      </c>
+      <c r="BL38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM38">
+        <v>0.02199165691630483</v>
+      </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
+      <c r="BO38">
+        <v>1</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:62">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0.01929682540240578</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>38</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39">
-        <v>0.02398780832966365</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>38</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL39">
-        <v>0.02485082823464773</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>1</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>38</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD39">
-        <v>0.02521367765202685</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>1</v>
-      </c>
-      <c r="BH39">
-        <v>0</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>38</v>
+    <row r="39" spans="1:71">
+      <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
+        <v>0.02105668852705827</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>53</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC39">
+        <v>0.02173497487336453</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>74</v>
+      </c>
+      <c r="AT39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU39">
+        <v>0.02185310106061613</v>
+      </c>
+      <c r="AV39">
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>74</v>
+      </c>
+      <c r="BL39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM39">
+        <v>0.02190071183730228</v>
+      </c>
+      <c r="BN39">
+        <v>1</v>
+      </c>
+      <c r="BO39">
+        <v>1</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:62">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0.01457255552987705</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>298</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40">
-        <v>0.01811508689302283</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>298</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL40">
-        <v>0.01876682132221043</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>298</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD40">
-        <v>0.01904083754889409</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>1</v>
-      </c>
-      <c r="BH40">
-        <v>0</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>298</v>
+    <row r="40" spans="1:71">
+      <c r="J40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40">
+        <v>0.02102951159297585</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>58</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC40">
+        <v>0.02168984645421402</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>82</v>
+      </c>
+      <c r="AT40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU40">
+        <v>0.02180772737556943</v>
+      </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>82</v>
+      </c>
+      <c r="BL40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM40">
+        <v>0.021855239297801</v>
+      </c>
+      <c r="BN40">
+        <v>1</v>
+      </c>
+      <c r="BO40">
+        <v>1</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:62">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
+    <row r="41" spans="1:71">
+      <c r="J41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41">
+        <v>0.02094254540391211</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>74</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC41">
+        <v>0.02089844167867056</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>3</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>382</v>
+      </c>
+      <c r="AT41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU41">
+        <v>0.0209966727553597</v>
+      </c>
+      <c r="AV41">
+        <v>1</v>
+      </c>
+      <c r="AW41">
+        <v>1</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>225</v>
+      </c>
+      <c r="BL41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM41">
+        <v>0.02104241765421569</v>
+      </c>
+      <c r="BN41">
+        <v>1</v>
+      </c>
+      <c r="BO41">
+        <v>1</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:71">
+      <c r="J42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42">
+        <v>0.02089906230938024</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>82</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC42">
+        <v>0.02088317596189865</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>225</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU42">
+        <v>0.02067338524940197</v>
+      </c>
+      <c r="AV42">
+        <v>1</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>282</v>
+      </c>
+      <c r="BL42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM42">
+        <v>0.02071842581026909</v>
+      </c>
+      <c r="BN42">
+        <v>1</v>
+      </c>
+      <c r="BO42">
+        <v>1</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>1</v>
+      </c>
+      <c r="BR42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:71">
+      <c r="J43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
+        <v>0.02012180199462306</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>225</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC43">
+        <v>0.02056163597545127</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>282</v>
+      </c>
+      <c r="AT43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU43">
+        <v>0.02062381833065834</v>
+      </c>
+      <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>1</v>
+      </c>
+      <c r="AZ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>382</v>
+      </c>
+      <c r="BL43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM43">
+        <v>0.0206047444615159</v>
+      </c>
+      <c r="BN43">
+        <v>1</v>
+      </c>
+      <c r="BO43">
+        <v>1</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>1</v>
+      </c>
+      <c r="BR43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS43">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:71">
+      <c r="J44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44">
+        <v>0.01981198494608348</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>282</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC44">
+        <v>0.02044881492757499</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>302</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU44">
+        <v>0.02055995103678522</v>
+      </c>
+      <c r="AV44">
+        <v>1</v>
+      </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="AZ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>302</v>
+      </c>
+      <c r="BL44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM44">
+        <v>0.02051313135091896</v>
+      </c>
+      <c r="BN44">
+        <v>3</v>
+      </c>
+      <c r="BO44">
+        <v>3</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+      <c r="BQ44">
+        <v>1</v>
+      </c>
+      <c r="BR44" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS44">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:71">
+      <c r="J45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45">
+        <v>0.0197032772097538</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>302</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC45">
+        <v>0.01911188551024112</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>539</v>
+      </c>
+      <c r="AT45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU45">
+        <v>0.01921575561727678</v>
+      </c>
+      <c r="AV45">
+        <v>1</v>
+      </c>
+      <c r="AW45">
+        <v>1</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>1</v>
+      </c>
+      <c r="AZ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>539</v>
+      </c>
+      <c r="BL45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM45">
+        <v>0.01925762047879058</v>
+      </c>
+      <c r="BN45">
+        <v>1</v>
+      </c>
+      <c r="BO45">
+        <v>1</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
+      <c r="BQ45">
+        <v>1</v>
+      </c>
+      <c r="BR45" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS45">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:71">
+      <c r="J46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K46">
+        <v>0.01841509053424714</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>539</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC46">
+        <v>0.01870075741665795</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>7</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1091</v>
+      </c>
+      <c r="AT46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU46">
+        <v>0.01784887335524499</v>
+      </c>
+      <c r="AV46">
+        <v>1</v>
+      </c>
+      <c r="AW46">
+        <v>1</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="AZ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>780</v>
+      </c>
+      <c r="BL46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM46">
+        <v>0.01788776022631463</v>
+      </c>
+      <c r="BN46">
+        <v>1</v>
+      </c>
+      <c r="BO46">
+        <v>1</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>1</v>
+      </c>
+      <c r="BR46" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="47" spans="1:71">
+      <c r="J47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47">
+        <v>0.01710516231147454</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>780</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC47">
+        <v>0.017752391883332</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>780</v>
+      </c>
+      <c r="AT47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU47">
+        <v>0.0176377837820749</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>1</v>
+      </c>
+      <c r="AZ47" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>1091</v>
+      </c>
+      <c r="BL47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM47">
+        <v>0.01720935210644998</v>
+      </c>
+      <c r="BN47">
+        <v>7</v>
+      </c>
+      <c r="BO47">
+        <v>7</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>1</v>
+      </c>
+      <c r="BR47" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:71">
+      <c r="J48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48">
+        <v>0.01536583853019972</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>1100</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
+      <c r="AB48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC48">
+        <v>0.01594725511731158</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI48">
         <v>1100</v>
       </c>
-      <c r="AK41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
+      <c r="AT48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU48">
+        <v>0.01603392595337706</v>
+      </c>
+      <c r="AV48">
+        <v>1</v>
+      </c>
+      <c r="AW48">
+        <v>1</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>1</v>
+      </c>
+      <c r="AZ48" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA48">
         <v>1100</v>
       </c>
-      <c r="BC41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD41">
-        <v>0</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>1</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
+      <c r="BL48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM48">
+        <v>0.01606885864626357</v>
+      </c>
+      <c r="BN48">
+        <v>1</v>
+      </c>
+      <c r="BO48">
+        <v>1</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>1</v>
+      </c>
+      <c r="BR48" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS48">
         <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="10:71">
+      <c r="J49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>3927</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>3927</v>
+      </c>
+      <c r="AT49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>1</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>1</v>
+      </c>
+      <c r="AZ49" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>3927</v>
+      </c>
+      <c r="BL49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>1</v>
+      </c>
+      <c r="BO49">
+        <v>1</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>1</v>
+      </c>
+      <c r="BR49" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS49">
+        <v>3927</v>
       </c>
     </row>
   </sheetData>
